--- a/FSX_QA_SERVICE/rolx_fix_client/initiator/rolx_regression_test/report/rolx_report.xlsx
+++ b/FSX_QA_SERVICE/rolx_fix_client/initiator/rolx_regression_test/report/rolx_report.xlsx
@@ -79,9 +79,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -449,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,18 +460,14 @@
     <col width="9.6" customWidth="1" min="3" max="3"/>
     <col width="14.4" customWidth="1" min="4" max="4"/>
     <col width="69.59999999999999" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="10.8" customWidth="1" min="7" max="7"/>
-    <col width="7.199999999999999" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
-    <col width="15.6" customWidth="1" min="10" max="10"/>
-    <col width="22.8" customWidth="1" min="11" max="11"/>
-    <col width="10.8" customWidth="1" min="12" max="12"/>
-    <col width="14.4" customWidth="1" min="13" max="13"/>
-    <col width="27.6" customWidth="1" min="14" max="14"/>
-    <col width="8.4" customWidth="1" min="15" max="15"/>
-    <col width="66" customWidth="1" min="16" max="16"/>
-    <col width="9.6" customWidth="1" min="17" max="17"/>
+    <col width="10.8" customWidth="1" min="6" max="6"/>
+    <col width="9.6" customWidth="1" min="7" max="7"/>
+    <col width="32.4" customWidth="1" min="8" max="8"/>
+    <col width="76.8" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="21.6" customWidth="1" min="12" max="12"/>
+    <col width="9.6" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,60 +498,40 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>OrderQty</t>
+          <t>OrdType</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>OrdType</t>
+          <t>Symbol</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Side</t>
+          <t>ordstatus</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Symbol</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>TimeInForce</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>CrossingPriceType</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Rule80A</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>CashMargin</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>MarginTransactionType</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="P1" s="3" t="inlineStr">
+          <t>errorCode</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>RecvOrdStatus</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>RecvErrorCode</t>
+        </is>
+      </c>
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Execution Result</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Remark</t>
         </is>
@@ -589,56 +563,38 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>5</v>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>1301</t>
-        </is>
-      </c>
+          <t>['0', '2', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr"/>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="M2" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N2" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" s="5" t="inlineStr"/>
-      <c r="P2" s="5" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>ps: 若列表存在failed数据，请查看report.log文件</t>
         </is>
@@ -647,79 +603,61 @@
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>New Order-&gt;Fill</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>ROLX</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>NewAck</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>ROLX_Market_NewAck</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>New Order-&gt;Fill</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>ROLX</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>NewAck</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>ROLX_Market_NewAck</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>5</v>
-      </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>5110</t>
-        </is>
-      </c>
+          <t>['0', '2', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr"/>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr"/>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>Market Price is OK</t>
         </is>
@@ -728,7 +666,7 @@
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
@@ -751,56 +689,38 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>5</v>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>5110</t>
-        </is>
-      </c>
+          <t>['0', '2', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr"/>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="M4" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N4" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="Q4" s="5" t="inlineStr">
         <is>
           <t>FixMsg is OK</t>
         </is>
@@ -809,7 +729,7 @@
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -832,63 +752,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>5</v>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>5110</t>
-        </is>
-      </c>
+          <t>['0', '2', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>1230</v>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
@@ -911,63 +811,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>5</v>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>5110</t>
-        </is>
-      </c>
+          <t>['0', '2', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>1230</v>
-      </c>
-      <c r="P6" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q6" s="5" t="n"/>
+      <c r="M6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
@@ -990,61 +870,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>5</v>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6028</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>6028</t>
-        </is>
-      </c>
+          <t>['0', '1', 'C', '1', '1']</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr"/>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="n"/>
+      <c r="M7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
@@ -1067,56 +929,38 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>5</v>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6028</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>6028</t>
-        </is>
-      </c>
+          <t>['0', '1', 'C', '1', '1']</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>failed</t>
         </is>
       </c>
       <c r="M8" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="Q8" s="5" t="inlineStr">
         <is>
           <t>execType is OK</t>
         </is>
@@ -1125,7 +969,7 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -1148,63 +992,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>5</v>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6028</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>6028</t>
-        </is>
-      </c>
+          <t>['0', '1', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M9" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>3470</v>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q9" s="5" t="n"/>
+      <c r="M9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" s="5" t="inlineStr">
@@ -1227,63 +1051,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>5</v>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6028</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I10" s="5" t="inlineStr">
-        <is>
-          <t>6028</t>
-        </is>
-      </c>
+          <t>['0', '1', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr"/>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M10" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N10" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>3470</v>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" s="5" t="inlineStr">
@@ -1306,61 +1110,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>5</v>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5076</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>5076</t>
-        </is>
-      </c>
+          <t>['0', '1']</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0']</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N11" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="n"/>
+      <c r="M11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" s="5" t="inlineStr">
@@ -1383,61 +1169,43 @@
           <t>CancelAck</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>5</v>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G12" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5076</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I12" s="5" t="inlineStr">
-        <is>
-          <t>5076</t>
-        </is>
-      </c>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M12" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N12" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="Q12" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" s="5" t="inlineStr">
@@ -1460,63 +1228,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>5</v>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G13" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5076</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I13" s="5" t="inlineStr">
-        <is>
-          <t>5076</t>
-        </is>
-      </c>
+          <t>['0', '1']</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr"/>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010014,Price exceeds the high - low price range: price=1037, price_limit=[1053, 1653]</t>
         </is>
       </c>
       <c r="L13" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M13" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N13" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" s="5" t="n">
-        <v>1037</v>
-      </c>
-      <c r="P13" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q13" s="5" t="n"/>
+      <c r="M13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B14" s="5" t="inlineStr">
@@ -1539,61 +1287,43 @@
           <t>CancelAck</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>5</v>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G14" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5076</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I14" s="5" t="inlineStr">
-        <is>
-          <t>5076</t>
-        </is>
-      </c>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_20010031,Requested order does not exist: origClOrdId=16980491853054000012, symbol=5076</t>
         </is>
       </c>
       <c r="L14" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M14" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N14" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B15" s="5" t="inlineStr">
@@ -1616,61 +1346,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>5</v>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G15" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5108</t>
         </is>
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>5108</t>
-        </is>
-      </c>
+          <t>['0', '1', 'C']</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L15" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M15" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N15" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B16" s="5" t="inlineStr">
@@ -1693,63 +1405,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>5</v>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G16" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5108</t>
         </is>
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>5108</t>
-        </is>
-      </c>
+          <t>['0', '1', 'C']</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr"/>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L16" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="n">
-        <v>5222</v>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q16" s="5" t="n"/>
+      <c r="M16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B17" s="5" t="inlineStr">
@@ -1772,61 +1464,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>5</v>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G17" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0']</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q17" s="5" t="n"/>
+      <c r="M17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B18" s="5" t="inlineStr">
@@ -1849,61 +1523,43 @@
           <t>CancelAck</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n">
-        <v>5</v>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G18" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L18" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N18" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="n"/>
+      <c r="M18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B19" s="5" t="inlineStr">
@@ -1926,61 +1582,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n">
-        <v>5</v>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I19" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr"/>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0']</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M19" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N19" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q19" s="5" t="n"/>
+      <c r="M19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B20" s="5" t="inlineStr">
@@ -2003,61 +1641,43 @@
           <t>CancelAck</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n">
-        <v>5</v>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="K20" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L20" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N20" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q20" s="5" t="n"/>
+      <c r="M20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -2080,63 +1700,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>5</v>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0']</t>
         </is>
       </c>
       <c r="K21" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L21" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O21" s="5" t="n">
-        <v>973</v>
-      </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q21" s="5" t="n"/>
+      <c r="M21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B22" s="5" t="inlineStr">
@@ -2159,63 +1759,43 @@
           <t>CancelAck</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n">
-        <v>5</v>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G22" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H22" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I22" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr"/>
       <c r="J22" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="K22" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L22" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M22" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N22" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O22" s="5" t="n">
-        <v>973</v>
-      </c>
-      <c r="P22" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q22" s="5" t="n"/>
+      <c r="M22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B23" s="5" t="inlineStr">
@@ -2238,63 +1818,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n">
-        <v>5</v>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G23" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H23" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I23" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr"/>
       <c r="J23" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0']</t>
         </is>
       </c>
       <c r="K23" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L23" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M23" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N23" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O23" s="5" t="n">
-        <v>973</v>
-      </c>
-      <c r="P23" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q23" s="5" t="n"/>
+      <c r="M23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B24" s="5" t="inlineStr">
@@ -2317,63 +1877,43 @@
           <t>CancelAck</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n">
-        <v>5</v>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G24" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1311</t>
         </is>
       </c>
       <c r="H24" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
-        <is>
-          <t>1311</t>
-        </is>
-      </c>
+          <t>['0', '4']</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['4']</t>
         </is>
       </c>
       <c r="K24" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L24" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M24" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N24" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O24" s="5" t="n">
-        <v>973</v>
-      </c>
-      <c r="P24" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q24" s="5" t="n"/>
+      <c r="M24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B25" s="5" t="inlineStr">
@@ -2396,61 +1936,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n">
-        <v>5</v>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G25" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="H25" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I25" s="5" t="inlineStr"/>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K25" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010013,No available instrument risk check data found: instrumentDate=not_found,expectedDate=20231023</t>
         </is>
       </c>
       <c r="L25" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N25" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr"/>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q25" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B26" s="5" t="inlineStr">
@@ -2473,61 +1995,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F26" s="5" t="n">
-        <v>5</v>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="H26" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I26" s="5" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K26" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010013,No available instrument risk check data found: instrumentDate=not_found,expectedDate=20231023</t>
         </is>
       </c>
       <c r="L26" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M26" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N26" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O26" s="5" t="inlineStr"/>
-      <c r="P26" s="5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q26" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B27" s="5" t="inlineStr">
@@ -2550,63 +2054,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n">
-        <v>5</v>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G27" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="H27" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K27" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010013,No available instrument risk check data found: instrumentDate=not_found,expectedDate=20231023</t>
         </is>
       </c>
       <c r="L27" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M27" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N27" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O27" s="5" t="n">
-        <v>3365</v>
-      </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q27" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B28" s="5" t="inlineStr">
@@ -2629,63 +2113,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n">
-        <v>5</v>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G28" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="H28" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>1313</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr"/>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K28" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010013,No available instrument risk check data found: instrumentDate=not_found,expectedDate=20231023</t>
         </is>
       </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O28" s="5" t="n">
-        <v>3365</v>
-      </c>
-      <c r="P28" s="5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q28" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B29" s="5" t="inlineStr">
@@ -2708,61 +2172,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n">
-        <v>5</v>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G29" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
+          <t>['0', '2']</t>
+        </is>
+      </c>
+      <c r="I29" s="5" t="inlineStr"/>
       <c r="J29" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K29" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L29" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O29" s="5" t="inlineStr"/>
-      <c r="P29" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q29" s="5" t="n"/>
+      <c r="M29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B30" s="5" t="inlineStr">
@@ -2785,61 +2231,43 @@
           <t>ROLX_Market_NewAck</t>
         </is>
       </c>
-      <c r="F30" s="5" t="n">
-        <v>5</v>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G30" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="H30" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I30" s="5" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
+          <t>['0', '2']</t>
+        </is>
+      </c>
+      <c r="I30" s="5" t="inlineStr"/>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K30" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M30" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N30" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O30" s="5" t="inlineStr"/>
-      <c r="P30" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q30" s="5" t="n"/>
+      <c r="M30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B31" s="5" t="inlineStr">
@@ -2862,63 +2290,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n">
-        <v>5</v>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G31" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="H31" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
+          <t>['0', '2']</t>
+        </is>
+      </c>
+      <c r="I31" s="5" t="inlineStr"/>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K31" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L31" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M31" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N31" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O31" s="5" t="n">
-        <v>369</v>
-      </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q31" s="5" t="n"/>
+      <c r="M31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B32" s="5" t="inlineStr">
@@ -2941,63 +2349,43 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n">
-        <v>5</v>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G32" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="H32" s="5" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I32" s="5" t="inlineStr">
-        <is>
-          <t>4689</t>
-        </is>
-      </c>
+          <t>['0', '2']</t>
+        </is>
+      </c>
+      <c r="I32" s="5" t="inlineStr"/>
       <c r="J32" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K32" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L32" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M32" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N32" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O32" s="5" t="n">
-        <v>369</v>
-      </c>
-      <c r="P32" s="5" t="inlineStr">
-        <is>
           <t>failed</t>
         </is>
       </c>
-      <c r="Q32" s="5" t="n"/>
+      <c r="M32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" s="5" t="inlineStr">
@@ -3020,63 +2408,47 @@
           <t>ROLX_Limit_NewAck</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n">
-        <v>5</v>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G33" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9999</t>
         </is>
       </c>
       <c r="H33" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>ERROR_10010013,No available instrument risk check data found</t>
         </is>
       </c>
       <c r="J33" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K33" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010013,No available instrument risk check data found: instrumentDate=not_found,expectedDate=20231023</t>
         </is>
       </c>
       <c r="L33" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M33" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N33" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O33" s="5" t="n">
-        <v>369</v>
-      </c>
-      <c r="P33" s="5" t="inlineStr">
-        <is>
           <t>success</t>
         </is>
       </c>
-      <c r="Q33" s="5" t="n"/>
+      <c r="M33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" s="5" t="inlineStr">
@@ -3099,63 +2471,47 @@
           <t>Price=Low-limit-1</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n">
-        <v>5</v>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G34" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H34" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I34" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010014,Price exceeds the high-low price range</t>
         </is>
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K34" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010014,Price exceeds the high - low price range: price=58, price_limit=[58.6, 118.6]</t>
         </is>
       </c>
       <c r="L34" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M34" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N34" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O34" s="5" t="n">
-        <v>58</v>
-      </c>
-      <c r="P34" s="5" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q34" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" s="5" t="inlineStr">
@@ -3178,63 +2534,47 @@
           <t>Price=High-limit+1</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n">
-        <v>5</v>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G35" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H35" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I35" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010014,Price exceeds the high-low price range</t>
         </is>
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K35" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010014,Price exceeds the high - low price range: price=119, price_limit=[58.6, 118.6]</t>
         </is>
       </c>
       <c r="L35" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M35" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N35" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O35" s="5" t="n">
-        <v>119</v>
-      </c>
-      <c r="P35" s="5" t="inlineStr">
-        <is>
-          <t>10014,Price exceeds the high-low price range</t>
-        </is>
-      </c>
-      <c r="Q35" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M35" s="5" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" s="5" t="inlineStr">
@@ -3254,66 +2594,50 @@
       </c>
       <c r="E36" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;1,000 Tick size ≠ 1</t>
-        </is>
-      </c>
-      <c r="F36" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;1,000 Tick size != 1</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G36" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="H36" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I36" s="5" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick</t>
         </is>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K36" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick: price=371.5</t>
         </is>
       </c>
       <c r="L36" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M36" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N36" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O36" s="5" t="n">
-        <v>371.5</v>
-      </c>
-      <c r="P36" s="5" t="inlineStr">
-        <is>
-          <t>10015,Tick-size is not matched with TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q36" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M36" s="5" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B37" s="5" t="inlineStr">
@@ -3333,66 +2657,50 @@
       </c>
       <c r="E37" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;3,000 Tick side ≠ 1</t>
-        </is>
-      </c>
-      <c r="F37" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;3,000 Tick side != 1</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G37" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7203</t>
         </is>
       </c>
       <c r="H37" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I37" s="5" t="inlineStr">
         <is>
-          <t>7203</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick</t>
         </is>
       </c>
       <c r="J37" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K37" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick: price=2105.5</t>
         </is>
       </c>
       <c r="L37" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M37" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N37" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" s="5" t="n">
-        <v>2105.5</v>
-      </c>
-      <c r="P37" s="5" t="inlineStr">
-        <is>
-          <t>10015,Tick-size is not matched with TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q37" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M37" s="5" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B38" s="5" t="inlineStr">
@@ -3412,66 +2720,50 @@
       </c>
       <c r="E38" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;10,000 Tick side ≠ 1</t>
-        </is>
-      </c>
-      <c r="F38" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;10,000 Tick side != 1</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G38" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9433</t>
         </is>
       </c>
       <c r="H38" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I38" s="5" t="inlineStr">
         <is>
-          <t>9433</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick</t>
         </is>
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K38" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick: price=5000.5</t>
         </is>
       </c>
       <c r="L38" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M38" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N38" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O38" s="5" t="n">
-        <v>5000.5</v>
-      </c>
-      <c r="P38" s="5" t="inlineStr">
-        <is>
-          <t>10015,Tick-size is not matched with TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q38" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M38" s="5" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B39" s="5" t="inlineStr">
@@ -3491,66 +2783,50 @@
       </c>
       <c r="E39" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;30,000 Tick side ≠ 5</t>
-        </is>
-      </c>
-      <c r="F39" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;30,000 Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G39" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6954</t>
         </is>
       </c>
       <c r="H39" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I39" s="5" t="inlineStr">
         <is>
-          <t>6954</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick</t>
         </is>
       </c>
       <c r="J39" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K39" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010014,Price exceeds the high - low price range: price=26001, price_limit=[4002, 6002]</t>
         </is>
       </c>
       <c r="L39" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M39" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N39" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O39" s="5" t="n">
-        <v>26001</v>
-      </c>
-      <c r="P39" s="5" t="inlineStr">
-        <is>
-          <t>10015,Tick-size is not matched with TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q39" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M39" s="5" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B40" s="5" t="inlineStr">
@@ -3570,66 +2846,50 @@
       </c>
       <c r="E40" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;100,000 Tick side ≠ 10</t>
-        </is>
-      </c>
-      <c r="F40" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;100,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G40" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9983</t>
         </is>
       </c>
       <c r="H40" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I40" s="5" t="inlineStr">
         <is>
-          <t>9983</t>
+          <t>ERROR_10010015,Tick-size is not matched with TOPIX100 tick</t>
         </is>
       </c>
       <c r="J40" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K40" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010014,Price exceeds the high - low price range: price=75001, price_limit=[29630, 43630]</t>
         </is>
       </c>
       <c r="L40" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M40" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N40" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O40" s="5" t="n">
-        <v>75001</v>
-      </c>
-      <c r="P40" s="5" t="inlineStr">
-        <is>
-          <t>10015,Tick-size is not matched with TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q40" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" s="5" t="inlineStr">
@@ -3649,66 +2909,50 @@
       </c>
       <c r="E41" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;3,000 Tick side ≠ 1</t>
-        </is>
-      </c>
-      <c r="F41" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;3,000 Tick side != 1</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G41" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5078</t>
         </is>
       </c>
       <c r="H41" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I41" s="5" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>ERROR_10010016,Tick-size is not matched with non-TOPIX100 tick</t>
         </is>
       </c>
       <c r="J41" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K41" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010016,Tick-size is not matched with non-TOPIX100 tick: price=2500.5</t>
         </is>
       </c>
       <c r="L41" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M41" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N41" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" s="5" t="n">
-        <v>2500.5</v>
-      </c>
-      <c r="P41" s="5" t="inlineStr">
-        <is>
-          <t>10016,Tick-size is not matched with non-TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q41" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B42" s="5" t="inlineStr">
@@ -3728,66 +2972,50 @@
       </c>
       <c r="E42" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;5,000  Tick side ≠ 5</t>
-        </is>
-      </c>
-      <c r="F42" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;5,000  Tick side != 5</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G42" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9720</t>
         </is>
       </c>
       <c r="H42" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I42" s="5" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>ERROR_10010016,Tick-size is not matched with non-TOPIX100 tick</t>
         </is>
       </c>
       <c r="J42" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K42" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010016,Tick-size is not matched with non-TOPIX100 tick: price=4100.5</t>
         </is>
       </c>
       <c r="L42" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M42" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N42" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" s="5" t="n">
-        <v>4000.5</v>
-      </c>
-      <c r="P42" s="5" t="inlineStr">
-        <is>
-          <t>10016,Tick-size is not matched with non-TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q42" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B43" s="5" t="inlineStr">
@@ -3807,66 +3035,50 @@
       </c>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>Price&lt;30,000 Tick side ≠ 10</t>
-        </is>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>5</v>
+          <t>Price&lt;30,000 Tick side != 10</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="G43" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3733</t>
         </is>
       </c>
       <c r="H43" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I43" s="5" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>ERROR_10010016,Tick-size is not matched with non-TOPIX100 tick</t>
         </is>
       </c>
       <c r="J43" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K43" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010016,Tick-size is not matched with non-TOPIX100 tick: price=12001</t>
         </is>
       </c>
       <c r="L43" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M43" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N43" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" s="5" t="n">
-        <v>15001</v>
-      </c>
-      <c r="P43" s="5" t="inlineStr">
-        <is>
-          <t>10016,Tick-size is not matched with non-TOPIX100 tick</t>
-        </is>
-      </c>
-      <c r="Q43" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M43" s="5" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B44" s="5" t="inlineStr">
@@ -3889,61 +3101,47 @@
           <t xml:space="preserve">Quantity=0 </t>
         </is>
       </c>
-      <c r="F44" s="5" t="n">
-        <v>0</v>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G44" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H44" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I44" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
       <c r="J44" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K44" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=0,lot_size=100</t>
         </is>
       </c>
       <c r="L44" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M44" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N44" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" s="5" t="inlineStr"/>
-      <c r="P44" s="5" t="inlineStr">
-        <is>
-          <t>10018,Invalid quantity or lot_size</t>
-        </is>
-      </c>
-      <c r="Q44" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B45" s="5" t="inlineStr">
@@ -3966,61 +3164,47 @@
           <t xml:space="preserve">Quantity=100(Round-lot) </t>
         </is>
       </c>
-      <c r="F45" s="5" t="n">
-        <v>100</v>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G45" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H45" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I45" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
       <c r="J45" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K45" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=100,lot_size=100</t>
         </is>
       </c>
       <c r="L45" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M45" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N45" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O45" s="5" t="inlineStr"/>
-      <c r="P45" s="5" t="inlineStr">
-        <is>
-          <t>10018,Invalid quantity or lot_size</t>
-        </is>
-      </c>
-      <c r="Q45" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M45" s="5" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B46" s="5" t="inlineStr">
@@ -4043,61 +3227,47 @@
           <t xml:space="preserve">Quantity=101(Mixed-lot) </t>
         </is>
       </c>
-      <c r="F46" s="5" t="n">
-        <v>101</v>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G46" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H46" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I46" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
       <c r="J46" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K46" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=101,lot_size=100</t>
         </is>
       </c>
       <c r="L46" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M46" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N46" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" s="5" t="inlineStr"/>
-      <c r="P46" s="5" t="inlineStr">
-        <is>
-          <t>10018,Invalid quantity or lot_size</t>
-        </is>
-      </c>
-      <c r="Q46" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B47" s="5" t="inlineStr">
@@ -4120,61 +3290,47 @@
           <t>Quantity=1(Lot size=1)</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n">
-        <v>1</v>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G47" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="H47" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I47" s="5" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
       <c r="J47" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K47" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=1,lot_size=1</t>
         </is>
       </c>
       <c r="L47" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M47" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N47" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" s="5" t="inlineStr"/>
-      <c r="P47" s="5" t="inlineStr">
-        <is>
-          <t>10018,Invalid quantity or lot_size</t>
-        </is>
-      </c>
-      <c r="Q47" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M47" s="5" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B48" s="5" t="inlineStr">
@@ -4197,61 +3353,47 @@
           <t>Quantity=10(Lot size=10)</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n">
-        <v>10</v>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G48" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="H48" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I48" s="5" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
       <c r="J48" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K48" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=10,lot_size=10</t>
         </is>
       </c>
       <c r="L48" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M48" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N48" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" s="5" t="inlineStr"/>
-      <c r="P48" s="5" t="inlineStr">
-        <is>
-          <t>10018,Invalid quantity or lot_size</t>
-        </is>
-      </c>
-      <c r="Q48" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B49" s="5" t="inlineStr">
@@ -4274,61 +3416,47 @@
           <t>Quantity=10(Lot size=10)</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n">
-        <v>1000</v>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G49" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="H49" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I49" s="5" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size</t>
         </is>
       </c>
       <c r="J49" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K49" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010018,Invalid quantity or lot_size: quantity=1000,lot_size=1000</t>
         </is>
       </c>
       <c r="L49" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M49" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N49" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" s="5" t="inlineStr"/>
-      <c r="P49" s="5" t="inlineStr">
-        <is>
-          <t>10018,Invalid quantity or lot_size</t>
-        </is>
-      </c>
-      <c r="Q49" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M49" s="5" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B50" s="5" t="inlineStr">
@@ -4351,61 +3479,47 @@
           <t>Order Type is not Limit/Market (Limit/Market Acceptable)</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n">
-        <v>1</v>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="G50" s="5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H50" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I50" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010003,OrdType is not supported</t>
         </is>
       </c>
       <c r="J50" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K50" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010003,OrdType is not supported: ordType=9</t>
         </is>
       </c>
       <c r="L50" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M50" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N50" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" s="5" t="inlineStr"/>
-      <c r="P50" s="5" t="inlineStr">
-        <is>
-          <t>10003,OrdType is not supported</t>
-        </is>
-      </c>
-      <c r="Q50" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B51" s="5" t="inlineStr">
@@ -4428,61 +3542,47 @@
           <t>TimeInForce is not 0:Day</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n">
-        <v>1</v>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G51" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H51" s="5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I51" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010012,TimeInForce is not supported</t>
         </is>
       </c>
       <c r="J51" s="5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K51" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010012,TimeInForce is not supported: timeInForce=6</t>
         </is>
       </c>
       <c r="L51" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M51" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N51" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" s="5" t="inlineStr"/>
-      <c r="P51" s="5" t="inlineStr">
-        <is>
-          <t>10012,TimeInForce is not supported</t>
-        </is>
-      </c>
-      <c r="Q51" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B52" s="5" t="inlineStr">
@@ -4505,61 +3605,47 @@
           <t>Order Side is not Buy/Sell (Buy/Sell Acceptable)</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n">
-        <v>1</v>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G52" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H52" s="5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I52" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010004,Side is not supported</t>
         </is>
       </c>
       <c r="J52" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K52" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010004,Side is not supported: side=5</t>
         </is>
       </c>
       <c r="L52" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M52" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N52" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" s="5" t="inlineStr"/>
-      <c r="P52" s="5" t="inlineStr">
-        <is>
-          <t>10004,Side is not supported</t>
-        </is>
-      </c>
-      <c r="Q52" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M52" s="5" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B53" s="5" t="inlineStr">
@@ -4582,61 +3668,47 @@
           <t>Account is not the target test account</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n">
-        <v>1</v>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G53" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H53" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I53" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010009,Invalid account</t>
         </is>
       </c>
       <c r="J53" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K53" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010009,Invalid account: senderCompID=RSIT_ROLX_2, account=RSIT_ACCOUNT_23</t>
         </is>
       </c>
       <c r="L53" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M53" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N53" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" s="5" t="inlineStr"/>
-      <c r="P53" s="5" t="inlineStr">
-        <is>
-          <t>10009,Invalid account</t>
-        </is>
-      </c>
-      <c r="Q53" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M53" s="5" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B54" s="5" t="inlineStr">
@@ -4659,61 +3731,47 @@
           <t>Rule80A is not Agency/Principal</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>1</v>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G54" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H54" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I54" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010025,Rule80A is not supported</t>
         </is>
       </c>
       <c r="J54" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K54" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010025,Rule80A is not supported: rule80A=S</t>
         </is>
       </c>
       <c r="L54" s="5" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="M54" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N54" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O54" s="5" t="inlineStr"/>
-      <c r="P54" s="5" t="inlineStr">
-        <is>
-          <t>10025,Rule80A is not supported</t>
-        </is>
-      </c>
-      <c r="Q54" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M54" s="5" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B55" s="5" t="inlineStr">
@@ -4736,61 +3794,47 @@
           <t>CashMargin is not Cash (Cash Acceptable)</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n">
-        <v>1</v>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G55" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H55" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I55" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010026,CashMargin is not supported</t>
         </is>
       </c>
       <c r="J55" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K55" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010026,CashMargin is not supported: cashMargin=2</t>
         </is>
       </c>
       <c r="L55" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M55" s="5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N55" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" s="5" t="inlineStr"/>
-      <c r="P55" s="5" t="inlineStr">
-        <is>
-          <t>10026,CashMargin is not supported</t>
-        </is>
-      </c>
-      <c r="Q55" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M55" s="5" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B56" s="5" t="inlineStr">
@@ -4813,61 +3857,47 @@
           <t>MarginTransactionType is not 0-None</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n">
-        <v>1</v>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G56" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H56" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I56" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010027,MarginTransactionType is not supported</t>
         </is>
       </c>
       <c r="J56" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K56" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_10010027,MarginTransactionType is not supported: marginTransactionType=1</t>
         </is>
       </c>
       <c r="L56" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M56" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N56" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O56" s="5" t="inlineStr"/>
-      <c r="P56" s="5" t="inlineStr">
-        <is>
-          <t>10027,MarginTransactionType is not supported</t>
-        </is>
-      </c>
-      <c r="Q56" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M56" s="5" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B57" s="5" t="inlineStr">
@@ -4890,61 +3920,47 @@
           <t>CrossingPriceType is not ROL/REX</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n">
-        <v>1</v>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G57" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="H57" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I57" s="5" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>ERROR_10010028,CrossingPriceType is not supported</t>
         </is>
       </c>
       <c r="J57" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K57" s="5" t="inlineStr">
         <is>
-          <t>ROLX</t>
+          <t>ERROR_10010028,CrossingPriceType is not supported: crossingPriceType=ROLX</t>
         </is>
       </c>
       <c r="L57" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M57" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N57" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O57" s="5" t="inlineStr"/>
-      <c r="P57" s="5" t="inlineStr">
-        <is>
-          <t>10028,CrossingPriceType is not supported</t>
-        </is>
-      </c>
-      <c r="Q57" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M57" s="5" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B58" s="5" t="inlineStr">
@@ -4967,57 +3983,43 @@
           <t>New Order-&gt;Canceled</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n">
-        <v>5</v>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G58" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6954</t>
         </is>
       </c>
       <c r="H58" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I58" s="5" t="inlineStr">
-        <is>
-          <t>6954</t>
-        </is>
-      </c>
+          <t>['0', '2', '2', '2']</t>
+        </is>
+      </c>
+      <c r="I58" s="5" t="inlineStr"/>
       <c r="J58" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K58" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L58" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M58" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N58" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O58" s="5" t="inlineStr"/>
-      <c r="P58" s="5" t="inlineStr"/>
-      <c r="Q58" s="5" t="n"/>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="M58" s="5" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B59" s="5" t="inlineStr">
@@ -5040,61 +4042,47 @@
           <t>New Order-&gt;Canceled</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n">
-        <v>5</v>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G59" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6758</t>
         </is>
       </c>
       <c r="H59" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="I59" s="5" t="inlineStr">
         <is>
-          <t>6758</t>
+          <t>ERROR_20010031,Requested order does not exist</t>
         </is>
       </c>
       <c r="J59" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="K59" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ERROR_20010031,Requested order does not exist: origClOrdId=16980492325310000057, symbol=6758( expecting 6954)</t>
         </is>
       </c>
       <c r="L59" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M59" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N59" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O59" s="5" t="inlineStr"/>
-      <c r="P59" s="5" t="inlineStr">
-        <is>
-          <t>Unknow order</t>
-        </is>
-      </c>
-      <c r="Q59" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M59" s="5" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B60" s="5" t="inlineStr">
@@ -5117,53 +4105,43 @@
           <t>Rule80A</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n">
-        <v>5</v>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G60" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="H60" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I60" s="5" t="inlineStr">
-        <is>
-          <t>1325</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I60" s="5" t="inlineStr"/>
       <c r="J60" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K60" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
-        </is>
-      </c>
-      <c r="L60" s="5" t="inlineStr"/>
-      <c r="M60" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N60" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O60" s="5" t="inlineStr"/>
-      <c r="P60" s="5" t="inlineStr"/>
-      <c r="Q60" s="5" t="n"/>
+          <t> </t>
+        </is>
+      </c>
+      <c r="L60" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M60" s="5" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B61" s="5" t="inlineStr">
@@ -5186,53 +4164,43 @@
           <t>TimeInForce</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n">
-        <v>5</v>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G61" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="H61" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I61" s="5" t="inlineStr">
-        <is>
-          <t>1325</t>
-        </is>
-      </c>
-      <c r="J61" s="5" t="inlineStr"/>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="J61" s="5" t="inlineStr">
+        <is>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
       <c r="K61" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L61" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M61" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N61" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O61" s="5" t="inlineStr"/>
-      <c r="P61" s="5" t="inlineStr"/>
-      <c r="Q61" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M61" s="5" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B62" s="5" t="inlineStr">
@@ -5255,53 +4223,43 @@
           <t>CashMargin</t>
         </is>
       </c>
-      <c r="F62" s="5" t="n">
-        <v>5</v>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G62" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="H62" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I62" s="5" t="inlineStr">
-        <is>
-          <t>1325</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I62" s="5" t="inlineStr"/>
       <c r="J62" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K62" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L62" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M62" s="5" t="inlineStr"/>
-      <c r="N62" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O62" s="5" t="inlineStr"/>
-      <c r="P62" s="5" t="inlineStr"/>
-      <c r="Q62" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M62" s="5" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B63" s="5" t="inlineStr">
@@ -5324,53 +4282,43 @@
           <t>CrossingPriceType</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n">
-        <v>5</v>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G63" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="H63" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I63" s="5" t="inlineStr">
-        <is>
-          <t>1325</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I63" s="5" t="inlineStr"/>
       <c r="J63" s="5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K63" s="5" t="inlineStr"/>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="L63" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M63" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N63" s="5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" s="5" t="inlineStr"/>
-      <c r="P63" s="5" t="inlineStr"/>
-      <c r="Q63" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M63" s="5" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B64" s="5" t="inlineStr">
@@ -5393,48 +4341,38 @@
           <t>MarginTransactionType</t>
         </is>
       </c>
-      <c r="F64" s="5" t="n">
-        <v>5</v>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="G64" s="5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="H64" s="5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I64" s="5" t="inlineStr">
-        <is>
-          <t>1325</t>
-        </is>
-      </c>
+          <t>['0', 'C']</t>
+        </is>
+      </c>
+      <c r="I64" s="5" t="inlineStr"/>
       <c r="J64" s="5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>['0', 'C']</t>
         </is>
       </c>
       <c r="K64" s="5" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t> </t>
         </is>
       </c>
       <c r="L64" s="5" t="inlineStr">
         <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="M64" s="5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N64" s="5" t="inlineStr"/>
-      <c r="O64" s="5" t="inlineStr"/>
-      <c r="P64" s="5" t="inlineStr"/>
-      <c r="Q64" s="5" t="n"/>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="M64" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
